--- a/_site/training/2018/trainingsuren-2018-2019.xlsx
+++ b/_site/training/2018/trainingsuren-2018-2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brechttruyers/Desktop/basketbal 2018-2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\basket\lummen\_content\training\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E503D-9777-4818-AB89-6F151EEF7D6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="680" windowWidth="12380" windowHeight="15520"/>
+    <workbookView xWindow="18060" yWindow="677" windowWidth="12377" windowHeight="15523" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maandag" sheetId="1" r:id="rId1"/>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +414,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -552,7 +553,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -745,7 +746,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -938,7 +939,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1131,7 +1132,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1324,7 +1325,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1400,75 +1401,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A2:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel1" displayName="Tabel1" ref="A2:F29" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A2:F29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Maandag" dataDxfId="37"/>
-    <tableColumn id="2" name="SH1" dataDxfId="36"/>
-    <tableColumn id="3" name="SH2" dataDxfId="35"/>
-    <tableColumn id="4" name="SH3" dataDxfId="34"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="33"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Maandag" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SH1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SH2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SH3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OHVM" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ZOLDER" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel14" displayName="Tabel14" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Dinsdag" dataDxfId="29"/>
-    <tableColumn id="2" name="SH1" dataDxfId="28"/>
-    <tableColumn id="3" name="SH2" dataDxfId="27"/>
-    <tableColumn id="4" name="SH3" dataDxfId="26"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="25"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dinsdag" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SH1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SH2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="SH3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OHVM" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ZOLDER" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabel16" displayName="Tabel16" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Woensdag" dataDxfId="21"/>
-    <tableColumn id="2" name="SH1" dataDxfId="20"/>
-    <tableColumn id="3" name="SH2" dataDxfId="19"/>
-    <tableColumn id="4" name="SH3" dataDxfId="18"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="17"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Woensdag" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SH1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SH2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="SH3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="OHVM" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ZOLDER" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabel18" displayName="Tabel18" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Donderdag" dataDxfId="13"/>
-    <tableColumn id="2" name="SH1" dataDxfId="12"/>
-    <tableColumn id="3" name="SH2" dataDxfId="11"/>
-    <tableColumn id="4" name="SH3" dataDxfId="10"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="9"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Donderdag" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="SH1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="SH2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="SH3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="OHVM" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ZOLDER" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabel110" displayName="Tabel110" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Vrijdag" dataDxfId="5"/>
-    <tableColumn id="2" name="SH1" dataDxfId="4"/>
-    <tableColumn id="3" name="SH2" dataDxfId="3"/>
-    <tableColumn id="4" name="SH3" dataDxfId="2"/>
-    <tableColumn id="5" name="OHVM" dataDxfId="1"/>
-    <tableColumn id="6" name="ZOLDER" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Vrijdag" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="SH1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SH2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="SH3" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="OHVM" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="ZOLDER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1760,22 +1761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.4609375" customWidth="1"/>
+    <col min="15" max="15" width="18.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1806,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1816,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1826,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1836,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1856,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1866,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1875,7 +1876,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1885,7 +1886,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1896,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1916,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1935,7 +1936,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1956,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1966,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1975,7 +1976,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,7 +1986,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,7 +2002,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2017,7 +2018,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2034,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2054,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,7 +2064,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2083,33 +2084,33 @@
       <c r="E29" s="7"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,19 +2122,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2163,7 +2164,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2173,7 +2174,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2183,7 +2184,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2204,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2244,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2264,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2368,7 @@
       <c r="E21" s="18"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="E22" s="18"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2399,7 +2400,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2461,7 +2462,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2482,19 +2483,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2535,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2545,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2555,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2565,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2575,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2584,7 +2585,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +2605,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2624,7 +2625,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2635,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2644,7 +2645,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2654,7 +2655,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -2664,7 +2665,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -2674,7 +2675,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2684,7 +2685,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +2717,7 @@
       <c r="E20" s="7"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2732,7 +2733,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2746,7 +2747,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2774,7 +2775,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2791,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2806,7 +2807,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2822,7 +2823,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2836,7 +2837,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2848,19 +2849,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2910,7 +2911,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2920,7 +2921,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2930,7 +2931,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2940,7 +2941,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +2961,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2981,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2990,7 +2991,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3000,7 +3001,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3011,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3020,7 +3021,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3030,7 +3031,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3079,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3094,7 +3095,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3111,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -3126,12 +3127,12 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>50</v>
@@ -3142,12 +3143,12 @@
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>41</v>
@@ -3158,12 +3159,12 @@
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>41</v>
@@ -3176,7 +3177,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3192,7 +3193,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3213,19 +3214,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3256,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3276,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3316,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3336,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3356,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3375,7 +3376,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3395,7 +3396,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3422,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3437,7 +3438,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3453,7 +3454,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -3471,12 +3472,12 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>52</v>
@@ -3489,12 +3490,12 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="11" t="s">
@@ -3505,12 +3506,12 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
@@ -3521,7 +3522,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3535,7 +3536,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3547,7 +3548,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3559,7 +3560,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
